--- a/Results/results_Distributed_t0_5agents.xlsx
+++ b/Results/results_Distributed_t0_5agents.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/woutersouge/Documents/LR Master/AE4422 - Agent Based/AE4422/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E34A54C-F01A-8D4F-B012-63B59BED82C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFDD683F-603B-7146-BC76-2784903644D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3140" yWindow="760" windowWidth="27100" windowHeight="17180" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3540" yWindow="760" windowWidth="26700" windowHeight="17180" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="10" r:id="rId1"/>
@@ -683,18 +683,17 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1052,8 +1051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED2AE728-A234-1042-AC2F-ACA5E05ED4B8}">
   <dimension ref="B2:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1062,12 +1061,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
@@ -1141,7 +1140,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D12" s="6"/>
+      <c r="D12" s="5"/>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
@@ -1174,7 +1173,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F08CDD74-62CE-AF43-B431-465C6087D06A}">
   <dimension ref="B1:M1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -5320,8 +5319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N251"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5471,11 +5470,11 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L4:L12" si="1">K4^2</f>
+        <f>K4^2</f>
         <v>0</v>
       </c>
       <c r="M4" t="e">
-        <f t="shared" ref="M4:M12" si="2">K4/J4</f>
+        <f>K4/J4</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N4" t="e">
@@ -5501,7 +5500,7 @@
         <v>14</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G5:G12" si="3">G4+1</f>
+        <f>G4+1</f>
         <v>3</v>
       </c>
       <c r="H5">
@@ -5520,11 +5519,11 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <f t="shared" si="1"/>
+        <f>K5^2</f>
         <v>0</v>
       </c>
       <c r="M5">
-        <f t="shared" si="2"/>
+        <f>K5/J5</f>
         <v>0</v>
       </c>
       <c r="N5" t="e">
@@ -5550,7 +5549,7 @@
         <v>14</v>
       </c>
       <c r="G6">
-        <f t="shared" si="3"/>
+        <f>G5+1</f>
         <v>4</v>
       </c>
       <c r="H6">
@@ -5569,11 +5568,11 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <f t="shared" si="1"/>
+        <f>K6^2</f>
         <v>0</v>
       </c>
       <c r="M6">
-        <f t="shared" si="2"/>
+        <f>K6/J6</f>
         <v>0</v>
       </c>
       <c r="N6" t="e">
@@ -5599,7 +5598,7 @@
         <v>14</v>
       </c>
       <c r="G7">
-        <f t="shared" si="3"/>
+        <f>G6+1</f>
         <v>5</v>
       </c>
       <c r="H7">
@@ -5618,11 +5617,11 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <f t="shared" si="1"/>
+        <f>K7^2</f>
         <v>0</v>
       </c>
       <c r="M7" t="e">
-        <f t="shared" si="2"/>
+        <f>K7/J7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N7" t="e">
@@ -5648,7 +5647,7 @@
         <v>14</v>
       </c>
       <c r="G8">
-        <f t="shared" si="3"/>
+        <f>G7+1</f>
         <v>6</v>
       </c>
       <c r="H8">
@@ -5667,11 +5666,11 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <f t="shared" si="1"/>
+        <f>K8^2</f>
         <v>0</v>
       </c>
       <c r="M8">
-        <f t="shared" si="2"/>
+        <f>K8/J8</f>
         <v>0</v>
       </c>
       <c r="N8" t="e">
@@ -5697,7 +5696,7 @@
         <v>14</v>
       </c>
       <c r="G9">
-        <f t="shared" si="3"/>
+        <f>G8+1</f>
         <v>7</v>
       </c>
       <c r="H9">
@@ -5716,11 +5715,11 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <f t="shared" si="1"/>
+        <f>K9^2</f>
         <v>0</v>
       </c>
       <c r="M9">
-        <f t="shared" si="2"/>
+        <f>K9/J9</f>
         <v>0</v>
       </c>
       <c r="N9" t="e">
@@ -5746,7 +5745,7 @@
         <v>14</v>
       </c>
       <c r="G10">
-        <f t="shared" si="3"/>
+        <f>G9+1</f>
         <v>8</v>
       </c>
       <c r="H10">
@@ -5765,11 +5764,11 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <f t="shared" si="1"/>
+        <f>K10^2</f>
         <v>0</v>
       </c>
       <c r="M10">
-        <f t="shared" si="2"/>
+        <f>K10/J10</f>
         <v>0</v>
       </c>
       <c r="N10" t="e">
@@ -5795,7 +5794,7 @@
         <v>14</v>
       </c>
       <c r="G11">
-        <f t="shared" si="3"/>
+        <f>G10+1</f>
         <v>9</v>
       </c>
       <c r="H11">
@@ -5814,11 +5813,11 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <f t="shared" si="1"/>
+        <f>K11^2</f>
         <v>0</v>
       </c>
       <c r="M11">
-        <f t="shared" si="2"/>
+        <f>K11/J11</f>
         <v>0</v>
       </c>
       <c r="N11" t="e">
@@ -5844,7 +5843,7 @@
         <v>14</v>
       </c>
       <c r="G12">
-        <f t="shared" si="3"/>
+        <f>G11+1</f>
         <v>10</v>
       </c>
       <c r="H12">
@@ -5863,11 +5862,11 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <f t="shared" si="1"/>
+        <f>K12^2</f>
         <v>0</v>
       </c>
       <c r="M12">
-        <f t="shared" si="2"/>
+        <f>K12/J12</f>
         <v>0</v>
       </c>
       <c r="N12" t="e">
@@ -5998,11 +5997,11 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <f t="shared" ref="K16:K19" si="4">J16^2</f>
+        <f>J16^2</f>
         <v>0</v>
       </c>
       <c r="L16" t="e">
-        <f t="shared" ref="L16:L19" si="5">J16/I16</f>
+        <f>J16/I16</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6024,7 +6023,7 @@
         <v>14</v>
       </c>
       <c r="G17">
-        <f t="shared" ref="G17:G24" si="6">G16+1</f>
+        <f>G16+1</f>
         <v>3</v>
       </c>
       <c r="H17">
@@ -6039,11 +6038,11 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <f t="shared" si="4"/>
+        <f>J17^2</f>
         <v>0</v>
       </c>
       <c r="L17">
-        <f t="shared" si="5"/>
+        <f>J17/I17</f>
         <v>0</v>
       </c>
     </row>
@@ -6065,7 +6064,7 @@
         <v>14</v>
       </c>
       <c r="G18">
-        <f t="shared" si="6"/>
+        <f>G17+1</f>
         <v>4</v>
       </c>
       <c r="H18" s="3" t="s">
@@ -6102,7 +6101,7 @@
         <v>14</v>
       </c>
       <c r="G19">
-        <f t="shared" si="6"/>
+        <f>G18+1</f>
         <v>5</v>
       </c>
       <c r="H19">
@@ -6117,11 +6116,11 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <f t="shared" si="4"/>
+        <f>J19^2</f>
         <v>0</v>
       </c>
       <c r="L19" t="e">
-        <f t="shared" si="5"/>
+        <f>J19/I19</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6143,7 +6142,7 @@
         <v>14</v>
       </c>
       <c r="G20">
-        <f t="shared" si="6"/>
+        <f>G19+1</f>
         <v>6</v>
       </c>
       <c r="H20" s="3" t="s">
@@ -6180,7 +6179,7 @@
         <v>14</v>
       </c>
       <c r="G21">
-        <f t="shared" si="6"/>
+        <f>G20+1</f>
         <v>7</v>
       </c>
       <c r="H21" s="3" t="s">
@@ -6217,7 +6216,7 @@
         <v>14</v>
       </c>
       <c r="G22">
-        <f t="shared" si="6"/>
+        <f>G21+1</f>
         <v>8</v>
       </c>
       <c r="H22" s="3" t="s">
@@ -6254,7 +6253,7 @@
         <v>14</v>
       </c>
       <c r="G23">
-        <f t="shared" si="6"/>
+        <f>G22+1</f>
         <v>9</v>
       </c>
       <c r="H23" s="3" t="s">
@@ -6291,7 +6290,7 @@
         <v>14</v>
       </c>
       <c r="G24">
-        <f t="shared" si="6"/>
+        <f>G23+1</f>
         <v>10</v>
       </c>
       <c r="H24" s="3" t="s">
@@ -7071,7 +7070,7 @@
         <v>24</v>
       </c>
       <c r="B67" s="1" t="str">
-        <f t="shared" ref="B67:B81" si="7">MID(A67,39,LEN(A67) - 42)</f>
+        <f t="shared" ref="B67:B81" si="1">MID(A67,39,LEN(A67) - 42)</f>
         <v>10</v>
       </c>
       <c r="C67" s="1">
@@ -7089,7 +7088,7 @@
         <v>25</v>
       </c>
       <c r="B68" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C68" s="1">
@@ -7107,7 +7106,7 @@
         <v>26</v>
       </c>
       <c r="B69" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C69" s="1">
@@ -7125,7 +7124,7 @@
         <v>27</v>
       </c>
       <c r="B70" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="C70" s="1">
@@ -7143,7 +7142,7 @@
         <v>28</v>
       </c>
       <c r="B71" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="C71" s="1">
@@ -7161,7 +7160,7 @@
         <v>29</v>
       </c>
       <c r="B72" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="C72" s="1">
@@ -7179,7 +7178,7 @@
         <v>30</v>
       </c>
       <c r="B73" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="C73" s="1">
@@ -7197,7 +7196,7 @@
         <v>23</v>
       </c>
       <c r="B74" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C74" s="1">
@@ -7215,7 +7214,7 @@
         <v>24</v>
       </c>
       <c r="B75" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="C75" s="1">
@@ -7233,7 +7232,7 @@
         <v>25</v>
       </c>
       <c r="B76" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C76" s="1">
@@ -7251,7 +7250,7 @@
         <v>26</v>
       </c>
       <c r="B77" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C77" s="1">
@@ -7269,7 +7268,7 @@
         <v>27</v>
       </c>
       <c r="B78" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="C78" s="1">
@@ -7287,7 +7286,7 @@
         <v>28</v>
       </c>
       <c r="B79" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="C79" s="1">
@@ -7305,7 +7304,7 @@
         <v>29</v>
       </c>
       <c r="B80" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="C80" s="1">
@@ -7323,7 +7322,7 @@
         <v>30</v>
       </c>
       <c r="B81" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="C81" s="1">
@@ -7825,13 +7824,13 @@
         <f t="shared" ref="B2:B65" si="0">MID(A2,39,LEN(A2) - 42)</f>
         <v>10</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>40</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G2" t="s">
@@ -7867,13 +7866,13 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>85</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G3">
@@ -7915,13 +7914,13 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>105</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G4">
@@ -7964,13 +7963,13 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>90</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G5">
@@ -8013,13 +8012,13 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>125</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G6">
@@ -8062,13 +8061,13 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>65</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G7">
@@ -8111,13 +8110,13 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>100</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G8">
@@ -8160,13 +8159,13 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>135</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G9">
@@ -8209,13 +8208,13 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>40</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G10">
@@ -8258,7 +8257,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>85</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -8307,13 +8306,13 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <v>105</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G12">
@@ -8356,13 +8355,13 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <v>90</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -8374,13 +8373,13 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <v>125</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G14" t="s">
@@ -8410,13 +8409,13 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <v>65</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G15">
@@ -8450,13 +8449,13 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <v>100</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G16">
@@ -8491,13 +8490,13 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <v>135</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G17">
@@ -8532,13 +8531,13 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <v>40</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G18">
@@ -8573,13 +8572,13 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <v>85</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G19">
@@ -8614,13 +8613,13 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="6">
         <v>105</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G20">
@@ -8655,7 +8654,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="6">
         <v>90</v>
       </c>
       <c r="D21" s="4" t="s">
@@ -8696,13 +8695,13 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="6">
         <v>125</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G22">
@@ -8737,13 +8736,13 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="6">
         <v>65</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G23">
@@ -8778,13 +8777,13 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="6">
         <v>100</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G24">
@@ -8819,13 +8818,13 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="6">
         <v>135</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -8837,13 +8836,13 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="6">
         <v>40</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -8855,13 +8854,13 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="6">
         <v>85</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -8873,13 +8872,13 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="6">
         <v>105</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -8891,13 +8890,13 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="6">
         <v>90</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -8909,13 +8908,13 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="6">
         <v>125</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -8927,13 +8926,13 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="6">
         <v>65</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -8945,13 +8944,13 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="6">
         <v>100</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -8963,13 +8962,13 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="6">
         <v>135</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -8981,13 +8980,13 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="6">
         <v>40</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -8999,13 +8998,13 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="6">
         <v>85</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9017,13 +9016,13 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="6">
         <v>105</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9035,13 +9034,13 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="6">
         <v>90</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E37" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9053,13 +9052,13 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="6">
         <v>125</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9071,13 +9070,13 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="6">
         <v>65</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9089,13 +9088,13 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C40" s="6">
         <v>100</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9107,7 +9106,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="6">
         <v>135</v>
       </c>
       <c r="D41" s="4" t="s">
@@ -9125,13 +9124,13 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42" s="6">
         <v>40</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E42" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9143,13 +9142,13 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43" s="6">
         <v>85</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E43" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9161,13 +9160,13 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44" s="6">
         <v>105</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E44" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9179,13 +9178,13 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45" s="6">
         <v>90</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E45" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9197,13 +9196,13 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C46" s="6">
         <v>125</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E46" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9215,13 +9214,13 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C47" s="6">
         <v>65</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E47" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9233,13 +9232,13 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C48" s="6">
         <v>100</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="E48" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9251,13 +9250,13 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C49" s="6">
         <v>135</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E49" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9269,13 +9268,13 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C50" s="6">
         <v>40</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="E50" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9287,7 +9286,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C51" s="7">
+      <c r="C51" s="6">
         <v>85</v>
       </c>
       <c r="D51" s="4" t="s">
@@ -9305,13 +9304,13 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C52" s="7">
+      <c r="C52" s="6">
         <v>105</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="E52" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9323,13 +9322,13 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C53" s="7">
+      <c r="C53" s="6">
         <v>90</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="E53" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9341,13 +9340,13 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C54" s="7">
+      <c r="C54" s="6">
         <v>125</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="7" t="s">
+      <c r="E54" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9359,13 +9358,13 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C55" s="7">
+      <c r="C55" s="6">
         <v>65</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="E55" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9377,13 +9376,13 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C56" s="7">
+      <c r="C56" s="6">
         <v>100</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E56" s="7" t="s">
+      <c r="E56" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9395,13 +9394,13 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C57" s="7">
+      <c r="C57" s="6">
         <v>135</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E57" s="7" t="s">
+      <c r="E57" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9413,13 +9412,13 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C58" s="7">
+      <c r="C58" s="6">
         <v>40</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E58" s="7" t="s">
+      <c r="E58" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9431,13 +9430,13 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C59" s="7">
+      <c r="C59" s="6">
         <v>85</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E59" s="7" t="s">
+      <c r="E59" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9449,13 +9448,13 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C60" s="7">
+      <c r="C60" s="6">
         <v>105</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E60" s="7" t="s">
+      <c r="E60" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9467,7 +9466,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C61" s="7">
+      <c r="C61" s="6">
         <v>90</v>
       </c>
       <c r="D61" s="4" t="s">
@@ -9485,13 +9484,13 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C62" s="7">
+      <c r="C62" s="6">
         <v>125</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E62" s="7" t="s">
+      <c r="E62" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9503,13 +9502,13 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C63" s="7">
+      <c r="C63" s="6">
         <v>65</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E63" s="7" t="s">
+      <c r="E63" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9521,13 +9520,13 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C64" s="7">
+      <c r="C64" s="6">
         <v>100</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E64" s="7" t="s">
+      <c r="E64" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9539,13 +9538,13 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C65" s="7">
+      <c r="C65" s="6">
         <v>135</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E65" s="7" t="s">
+      <c r="E65" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9557,13 +9556,13 @@
         <f t="shared" ref="B66:B81" si="19">MID(A66,39,LEN(A66) - 42)</f>
         <v>10</v>
       </c>
-      <c r="C66" s="7">
+      <c r="C66" s="6">
         <v>40</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E66" s="7" t="s">
+      <c r="E66" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9575,13 +9574,13 @@
         <f t="shared" si="19"/>
         <v>2</v>
       </c>
-      <c r="C67" s="7">
+      <c r="C67" s="6">
         <v>85</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E67" s="7" t="s">
+      <c r="E67" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9593,13 +9592,13 @@
         <f t="shared" si="19"/>
         <v>3</v>
       </c>
-      <c r="C68" s="7">
+      <c r="C68" s="6">
         <v>105</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E68" s="7" t="s">
+      <c r="E68" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9611,13 +9610,13 @@
         <f t="shared" si="19"/>
         <v>4</v>
       </c>
-      <c r="C69" s="7">
+      <c r="C69" s="6">
         <v>90</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E69" s="7" t="s">
+      <c r="E69" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9629,13 +9628,13 @@
         <f t="shared" si="19"/>
         <v>5</v>
       </c>
-      <c r="C70" s="7">
+      <c r="C70" s="6">
         <v>125</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E70" s="7" t="s">
+      <c r="E70" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9647,7 +9646,7 @@
         <f t="shared" si="19"/>
         <v>6</v>
       </c>
-      <c r="C71" s="7">
+      <c r="C71" s="6">
         <v>65</v>
       </c>
       <c r="D71" s="4" t="s">
@@ -9665,13 +9664,13 @@
         <f t="shared" si="19"/>
         <v>7</v>
       </c>
-      <c r="C72" s="7">
+      <c r="C72" s="6">
         <v>100</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E72" s="7" t="s">
+      <c r="E72" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9683,13 +9682,13 @@
         <f t="shared" si="19"/>
         <v>8</v>
       </c>
-      <c r="C73" s="7">
+      <c r="C73" s="6">
         <v>135</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E73" s="7" t="s">
+      <c r="E73" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9701,13 +9700,13 @@
         <f t="shared" si="19"/>
         <v>10</v>
       </c>
-      <c r="C74" s="7">
+      <c r="C74" s="6">
         <v>40</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E74" s="7" t="s">
+      <c r="E74" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9719,13 +9718,13 @@
         <f t="shared" si="19"/>
         <v>2</v>
       </c>
-      <c r="C75" s="7">
+      <c r="C75" s="6">
         <v>85</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E75" s="7" t="s">
+      <c r="E75" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9737,13 +9736,13 @@
         <f t="shared" si="19"/>
         <v>3</v>
       </c>
-      <c r="C76" s="7">
+      <c r="C76" s="6">
         <v>105</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E76" s="7" t="s">
+      <c r="E76" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9755,13 +9754,13 @@
         <f t="shared" si="19"/>
         <v>4</v>
       </c>
-      <c r="C77" s="7">
+      <c r="C77" s="6">
         <v>90</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E77" s="7" t="s">
+      <c r="E77" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9773,13 +9772,13 @@
         <f t="shared" si="19"/>
         <v>5</v>
       </c>
-      <c r="C78" s="7">
+      <c r="C78" s="6">
         <v>125</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E78" s="7" t="s">
+      <c r="E78" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9791,13 +9790,13 @@
         <f t="shared" si="19"/>
         <v>6</v>
       </c>
-      <c r="C79" s="7">
+      <c r="C79" s="6">
         <v>65</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E79" s="7" t="s">
+      <c r="E79" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9809,13 +9808,13 @@
         <f t="shared" si="19"/>
         <v>7</v>
       </c>
-      <c r="C80" s="7">
+      <c r="C80" s="6">
         <v>100</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E80" s="7" t="s">
+      <c r="E80" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9827,7 +9826,7 @@
         <f t="shared" si="19"/>
         <v>8</v>
       </c>
-      <c r="C81" s="7">
+      <c r="C81" s="6">
         <v>135</v>
       </c>
       <c r="D81" s="4" t="s">
@@ -9839,72 +9838,72 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="4"/>
-      <c r="B82" s="7"/>
+      <c r="B82" s="6"/>
       <c r="C82" s="4"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="4"/>
-      <c r="B83" s="7"/>
+      <c r="B83" s="6"/>
       <c r="C83" s="4"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
-      <c r="B84" s="7"/>
+      <c r="B84" s="6"/>
       <c r="C84" s="4"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="4"/>
-      <c r="B85" s="7"/>
+      <c r="B85" s="6"/>
       <c r="C85" s="4"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="4"/>
-      <c r="B86" s="7"/>
+      <c r="B86" s="6"/>
       <c r="C86" s="4"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="4"/>
-      <c r="B87" s="7"/>
+      <c r="B87" s="6"/>
       <c r="C87" s="4"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="4"/>
-      <c r="B88" s="7"/>
+      <c r="B88" s="6"/>
       <c r="C88" s="4"/>
-      <c r="D88" s="7"/>
+      <c r="D88" s="6"/>
       <c r="E88" s="4"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="4"/>
-      <c r="B89" s="7"/>
+      <c r="B89" s="6"/>
       <c r="C89" s="4"/>
-      <c r="D89" s="7"/>
+      <c r="D89" s="6"/>
       <c r="E89" s="4"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="4"/>
-      <c r="B90" s="7"/>
+      <c r="B90" s="6"/>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="4"/>
-      <c r="B91" s="7"/>
+      <c r="B91" s="6"/>
       <c r="C91" s="4"/>
-      <c r="D91" s="8"/>
+      <c r="D91" s="4"/>
       <c r="E91" s="4"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -9951,7 +9950,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CCD7E65-601A-0640-B3DF-ED29C13EE74C}">
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
